--- a/Project 2 - Transportation/Main Project/Chicago_Sketch.xlsx
+++ b/Project 2 - Transportation/Main Project/Chicago_Sketch.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,24 @@
       <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -453,13 +471,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0144024822824903</v>
+        <v>0.0111396619540117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0163702637711054</v>
+        <v>0.013922608273281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0328359098876337</v>
+        <v>0.0124590201463176</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0139685993646309</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0189036227975672</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0203264329032187</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0239405231400168</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0264902812588364</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0406722733808929</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +505,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.013572082173271</v>
+        <v>0.0109184565343211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0157967288158924</v>
+        <v>0.0138122897404788</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0323015763644156</v>
+        <v>0.0123464241445901</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0136781526074008</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0183609715067223</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0201120952299084</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0240325852319578</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0263956545902053</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.039724371690685</v>
       </c>
     </row>
     <row r="4">
@@ -485,13 +539,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.011756922</v>
+        <v>0.0101510723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.014573256</v>
+        <v>0.01297829523</v>
       </c>
       <c r="D4" t="n">
-        <v>0.030242587</v>
+        <v>0.01096296532</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0123796053</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0170908792</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0176291876</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0217561343</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0239484916999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0388746668999999</v>
       </c>
     </row>
     <row r="5">
@@ -503,6 +575,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -515,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +611,24 @@
       <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -541,13 +637,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0024238018958914</v>
+        <v>0.0022094530278295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003607848031709</v>
+        <v>0.0026018910281803</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0068056008078352</v>
+        <v>0.0026369129851846</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0027733676159438</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0037076928912569</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0045331065244239</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0047766388118857</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0058885387733781</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0077941953664771</v>
       </c>
     </row>
     <row r="3">
@@ -557,13 +671,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0024300194143132</v>
+        <v>0.0022354351122041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0036390210381156</v>
+        <v>0.0026369748337685</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0068755730336209</v>
+        <v>0.0026649055419984</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0027832302040198</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0037229882489737</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0045921974399301</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0048773131337293</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0059594970389225</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007834398377203299</v>
       </c>
     </row>
     <row r="4">
@@ -573,13 +705,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0035306932</v>
+        <v>0.00399396292</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00522985</v>
+        <v>0.00478198529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009378373000000001</v>
+        <v>0.00431191517</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0044176719</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.00566116948</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00625338248</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0066742332</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.008295897389999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01159580985</v>
       </c>
     </row>
     <row r="5">
@@ -591,6 +741,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -603,7 +759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,6 +777,24 @@
       <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -629,13 +803,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.113476788613966</v>
+        <v>0.1215948513377715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1197739878512258</v>
+        <v>0.1192185777980584</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1138018082375448</v>
+        <v>0.1297020049833872</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1214062638426179</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1147116533726581</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1241342406664529</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1137210225752876</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1357677599465258</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1270874288890267</v>
       </c>
     </row>
     <row r="3">
@@ -645,13 +837,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2127577886190473</v>
+        <v>0.1598246327971537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1803712768505223</v>
+        <v>0.1295979734367655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1424090618217147</v>
+        <v>0.1560735026660429</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1525760952654968</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1726601253011172</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1252626432548327</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1104002634308039</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1268725091823102</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1606246140642936</v>
       </c>
     </row>
     <row r="4">
@@ -661,13 +871,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3932847496424266</v>
+        <v>0.2700261350541503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.308196366859205</v>
+        <v>0.2352955250708191</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2547614363809354</v>
+        <v>0.3300467454823074</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3125546445005823</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2783728124059855</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3282138885910083</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2792710515918009</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2934524930168466</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2051415490696323</v>
       </c>
     </row>
     <row r="5">
@@ -679,6 +907,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Project 2 - Transportation/Main Project/Chicago_Sketch.xlsx
+++ b/Project 2 - Transportation/Main Project/Chicago_Sketch.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,31 +477,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0111396619540117</v>
+        <v>0.1033669696088512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.013922608273281</v>
+        <v>0.1156965705825608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0124590201463176</v>
+        <v>0.1090665240007058</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0139685993646309</v>
+        <v>0.1152626660202152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0189036227975672</v>
+        <v>0.1336324885524118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0203264329032187</v>
+        <v>0.1405535183461671</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0239405231400168</v>
+        <v>0.1499653734994152</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0264902812588364</v>
+        <v>0.1580790017394266</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0406722733808929</v>
+        <v>0.1930533208957782</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.209191108553908</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2289091563840837</v>
       </c>
     </row>
     <row r="3">
@@ -505,31 +517,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0109184565343211</v>
+        <v>0.1022311950791885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0138122897404788</v>
+        <v>0.1152583016607767</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0123464241445901</v>
+        <v>0.1083253652032031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0136781526074008</v>
+        <v>0.1140991201984093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0183609715067223</v>
+        <v>0.1315135478214231</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0201120952299084</v>
+        <v>0.1400938210389392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0240325852319578</v>
+        <v>0.1501335141869403</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0263956545902053</v>
+        <v>0.1581110130991293</v>
       </c>
       <c r="J3" t="n">
-        <v>0.039724371690685</v>
+        <v>0.1907449898866187</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2083833231996603</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2313035466368292</v>
       </c>
     </row>
     <row r="4">
@@ -539,31 +557,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0101510723</v>
+        <v>0.0101382454799999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01297829523</v>
+        <v>0.0127128271599999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01096296532</v>
+        <v>0.01111449868</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0123796053</v>
+        <v>0.0130236184</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0170908792</v>
+        <v>0.01734942633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0176291876</v>
+        <v>0.017834211</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0217561343</v>
+        <v>0.0216732363</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0239484916999999</v>
+        <v>0.0240960926499999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0388746668999999</v>
+        <v>0.03920717425</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0380674284</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0551704497</v>
       </c>
     </row>
     <row r="5">
@@ -581,6 +605,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -593,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +655,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -663,6 +695,12 @@
       <c r="J2" t="n">
         <v>0.0077941953664771</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.0093418926102301</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0110296253290943</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -697,6 +735,12 @@
       <c r="J3" t="n">
         <v>0.007834398377203299</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.0094981077422579</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0112626622952171</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -705,31 +749,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00399396292</v>
+        <v>0.00386942026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00478198529</v>
+        <v>0.0046179197999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00431191517</v>
+        <v>0.00440634903</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0044176719</v>
+        <v>0.0048180730199999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00566116948</v>
+        <v>0.0057419649</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00625338248</v>
+        <v>0.0063312632199999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0066742332</v>
+        <v>0.00668186805</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008295897389999999</v>
+        <v>0.0082270991999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01159580985</v>
+        <v>0.011945524</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0154958498599999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.02751434365</v>
       </c>
     </row>
     <row r="5">
@@ -747,6 +797,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -759,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +847,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -829,6 +887,12 @@
       <c r="J2" t="n">
         <v>0.1270874288890267</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.1205975710553134</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1388766787087007</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -863,6 +927,12 @@
       <c r="J3" t="n">
         <v>0.1606246140642936</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.1187656420531076</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0519602715094874</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -871,31 +941,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2700261350541503</v>
+        <v>0.2777254847436962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2352955250708191</v>
+        <v>0.2522964292675415</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3300467454823074</v>
+        <v>0.298764402822299</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3125546445005823</v>
+        <v>0.2201953981926922</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2783728124059855</v>
+        <v>0.2604434607803559</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3282138885910083</v>
+        <v>0.3167821729333702</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2792710515918009</v>
+        <v>0.2800999554215255</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2934524930168466</v>
+        <v>0.2911716721006018</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2051415490696323</v>
+        <v>0.2015311331531153</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1795953050758076</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.0755494013315126</v>
       </c>
     </row>
     <row r="5">
@@ -913,6 +989,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Project 2 - Transportation/Main Project/Chicago_Sketch.xlsx
+++ b/Project 2 - Transportation/Main Project/Chicago_Sketch.xlsx
@@ -557,37 +557,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0101382454799999</v>
+        <v>0.000126310951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0127128271599999</v>
+        <v>0.000179093072</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01111449868</v>
+        <v>0.0001551694364</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0130236184</v>
+        <v>0.0001851826088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01734942633</v>
+        <v>0.00034677498</v>
       </c>
       <c r="G4" t="n">
-        <v>0.017834211</v>
+        <v>0.000346907255</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0216732363</v>
+        <v>0.000633107441</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0240960926499999</v>
+        <v>0.000742578989</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03920717425</v>
+        <v>0.002052861896</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0380674284</v>
+        <v>0.001805163885</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0551704497</v>
+        <v>0.0036330289199999</v>
       </c>
     </row>
     <row r="5">
@@ -749,37 +749,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00386942026</v>
+        <v>0.00383735637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0046179197999999</v>
+        <v>0.00436954745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00440634903</v>
+        <v>0.0042803539699999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0048180730199999</v>
+        <v>0.00419651825</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0057419649</v>
+        <v>0.0054151701</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0063312632199999</v>
+        <v>0.00637234095</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00668186805</v>
+        <v>0.00680870627</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0082270991999999</v>
+        <v>0.00831050025</v>
       </c>
       <c r="J4" t="n">
-        <v>0.011945524</v>
+        <v>0.01184669053</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0154958498599999</v>
+        <v>0.0174808820999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02751434365</v>
+        <v>0.0291258992</v>
       </c>
     </row>
     <row r="5">
@@ -941,37 +941,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2777254847436962</v>
+        <v>0.3139212762052834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2522964292675415</v>
+        <v>0.31487076042815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.298764402822299</v>
+        <v>0.3228248654077991</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2201953981926922</v>
+        <v>0.3274508537085975</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2604434607803559</v>
+        <v>0.3050806206033136</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3167821729333702</v>
+        <v>0.31642658225183</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2800999554215255</v>
+        <v>0.2567768251908443</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2911716721006018</v>
+        <v>0.2788324123804463</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2015311331531153</v>
+        <v>0.1906245759994369</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1795953050758076</v>
+        <v>0.0555678023953661</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0755494013315126</v>
+        <v>-0.3258858502682218</v>
       </c>
     </row>
     <row r="5">
